--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3691.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3691.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.601098694415113</v>
+        <v>2.139442682266235</v>
       </c>
       <c r="B1">
-        <v>4.921331783249935</v>
+        <v>4.760705471038818</v>
       </c>
       <c r="C1">
-        <v>5.554196594264085</v>
+        <v>3.319883346557617</v>
       </c>
       <c r="D1">
-        <v>1.460550692584715</v>
+        <v>2.241350650787354</v>
       </c>
       <c r="E1">
-        <v>0.9383613036941015</v>
+        <v>2.055217742919922</v>
       </c>
     </row>
   </sheetData>
